--- a/saved-xlsx/Arret 3 jours.xlsx
+++ b/saved-xlsx/Arret 3 jours.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>abdennebi moundher</t>
+          <t>Harkat Khaoula</t>
         </is>
       </c>
       <c r="L8" s="5" t="n"/>
